--- a/CR - Cost Report/BOM/FR/FRA0500_FRA0700.xlsx
+++ b/CR - Cost Report/BOM/FR/FRA0500_FRA0700.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\FR\FRA0500_FRA0700\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\FR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -66,16 +66,10 @@
     <t>Bodywork</t>
   </si>
   <si>
-    <t>FR_A0005</t>
-  </si>
-  <si>
     <t>FR_05001</t>
   </si>
   <si>
     <t>FR_05002</t>
-  </si>
-  <si>
-    <t>FR_A0007</t>
   </si>
   <si>
     <t>FR_07001</t>
@@ -166,6 +160,12 @@
   </si>
   <si>
     <t>Side plate of the side impact tubes</t>
+  </si>
+  <si>
+    <t>FR_A0500</t>
+  </si>
+  <si>
+    <t>FR_A0700</t>
   </si>
 </sst>
 </file>
@@ -588,7 +588,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -638,45 +638,45 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -691,140 +691,140 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" s="5">
         <v>2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" s="5">
         <v>2</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="F10" s="5">
         <v>2</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="F11" s="5">
         <v>2</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="F12" s="5">
         <v>4</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/FR/FRA0500_FRA0700.xlsx
+++ b/CR - Cost Report/BOM/FR/FRA0500_FRA0700.xlsx
@@ -588,7 +588,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
